--- a/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
+++ b/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
@@ -579,7 +579,7 @@
     <t>tag-BF7_L2M_BX_OreConsume_1d_cur</t>
   </si>
   <si>
-    <t>tag-BF8_L2M_BX_CokeConsume_1d_cur</t>
+    <t>tag-BF7_L2M_BX_CokeConsume_1d_cur</t>
   </si>
   <si>
     <t>tag-BF7_L2M_BX_ChargeCount_1d_cur</t>
@@ -1845,23 +1845,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="17">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="186" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="184" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="186" formatCode="0.000_ "/>
     <numFmt numFmtId="187" formatCode="0.0000_ "/>
-    <numFmt numFmtId="188" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="188" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -2135,10 +2135,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2150,9 +2158,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2160,7 +2195,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2181,66 +2240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2249,8 +2248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,7 +2371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,13 +2383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,25 +2413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2437,7 +2431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2449,7 +2443,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,43 +2515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,49 +2545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2881,21 +2881,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2916,17 +2916,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2935,7 +2929,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2955,11 +2949,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2982,10 +2982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2994,133 +2994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3247,7 +3247,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3255,7 +3255,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3263,7 +3263,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3279,15 +3279,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3330,10 +3330,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3341,10 +3341,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3352,11 +3352,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3396,31 +3396,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3435,360 +3435,360 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="185" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3851,118 +3851,118 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="186" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="186" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="33" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="27" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3970,11 +3970,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3982,7 +3982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3990,21 +3990,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4093,30 +4093,30 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4130,7 +4130,7 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4140,7 +4140,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4148,7 +4148,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4160,7 +4160,7 @@
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="39" fillId="6" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4181,24 +4181,24 @@
     <xf numFmtId="187" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="23" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="23" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4217,16 +4217,16 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="41" fillId="3" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="3" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="41" fillId="3" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4236,7 +4236,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4252,7 +4252,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4268,7 +4268,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4284,11 +4284,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4296,15 +4296,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4312,11 +4312,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4328,15 +4328,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="27" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="27" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4344,35 +4344,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4380,11 +4380,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4392,23 +4392,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4416,7 +4416,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4424,19 +4424,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4484,11 +4484,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4504,15 +4504,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4520,43 +4520,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4569,27 +4569,27 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -12105,9 +12105,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="8.96666666666667" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.11666666666667" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.975" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.11666666666667" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81666666666667" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="9.7" style="248" customWidth="1"/>
     <col min="21" max="21" width="26.3166666666667" customWidth="1"/>
     <col min="22" max="22" width="25.1416666666667" customWidth="1"/>

--- a/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
+++ b/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
@@ -371,7 +371,7 @@
 总量</t>
   </si>
   <si>
-    <t>四烧直供烧结矿</t>
+    <t>五烧直供烧结矿</t>
   </si>
   <si>
     <t>一烧直供烧结矿</t>
@@ -432,7 +432,7 @@
     <t>t</t>
   </si>
   <si>
-    <t>S4</t>
+    <t>S5</t>
   </si>
   <si>
     <t>S1</t>
@@ -28113,7 +28113,7 @@
         <v/>
       </c>
       <c r="BP5" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO2="","",_ludiwendu_dayno_all!BO2)</f>
+        <f t="shared" ref="BP5:BP14" si="0">IF(ISERROR(AVERAGE(B5:BO5)),"",AVERAGE(B5:BO5))</f>
         <v/>
       </c>
     </row>
@@ -28386,7 +28386,7 @@
         <v/>
       </c>
       <c r="BP6" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO3="","",_ludiwendu_dayno_all!BO3)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -28659,7 +28659,7 @@
         <v/>
       </c>
       <c r="BP7" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO4="","",_ludiwendu_dayno_all!BO4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -28932,7 +28932,7 @@
         <v/>
       </c>
       <c r="BP8" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO5="","",_ludiwendu_dayno_all!BO5)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -29205,7 +29205,7 @@
         <v/>
       </c>
       <c r="BP9" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO6="","",_ludiwendu_dayno_all!BO6)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -29478,7 +29478,7 @@
         <v/>
       </c>
       <c r="BP10" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO7="","",_ludiwendu_dayno_all!BO7)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -29751,7 +29751,7 @@
         <v/>
       </c>
       <c r="BP11" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO8="","",_ludiwendu_dayno_all!BO8)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30024,7 +30024,7 @@
         <v/>
       </c>
       <c r="BP12" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO9="","",_ludiwendu_dayno_all!BO9)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30297,7 +30297,7 @@
         <v/>
       </c>
       <c r="BP13" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO10="","",_ludiwendu_dayno_all!BO10)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30570,7 +30570,7 @@
         <v/>
       </c>
       <c r="BP14" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO11="","",_ludiwendu_dayno_all!BO11)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -30583,267 +30583,267 @@
         <v/>
       </c>
       <c r="C15" s="37" t="str">
-        <f t="shared" ref="C15:BN15" si="0">IF(ISERROR(AVERAGE(C5:C14)),"",AVERAGE(C5:C14))</f>
+        <f t="shared" ref="C15:BN15" si="1">IF(ISERROR(AVERAGE(C5:C14)),"",AVERAGE(C5:C14))</f>
         <v/>
       </c>
       <c r="D15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="X15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AD15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AE15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AG15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AH15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AI15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AL15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AM15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AN15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AO15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AQ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AR15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AS15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AT15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AU15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AV15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AW15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN15" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO15" s="37" t="str">
-        <f t="shared" ref="BO15:BP15" si="1">IF(ISERROR(AVERAGE(BO5:BO14)),"",AVERAGE(BO5:BO14))</f>
+        <f t="shared" ref="BO15:BP15" si="2">IF(ISERROR(AVERAGE(BO5:BO14)),"",AVERAGE(BO5:BO14))</f>
         <v/>
       </c>
       <c r="BP15" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -31116,7 +31116,7 @@
         <v/>
       </c>
       <c r="BP16" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO12="","",_ludiwendu_dayno_all!BO12)</f>
+        <f t="shared" ref="BP16:BP25" si="3">IF(ISERROR(AVERAGE(B16:BO16)),"",AVERAGE(B16:BO16))</f>
         <v/>
       </c>
     </row>
@@ -31389,7 +31389,7 @@
         <v/>
       </c>
       <c r="BP17" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO13="","",_ludiwendu_dayno_all!BO13)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -31662,7 +31662,7 @@
         <v/>
       </c>
       <c r="BP18" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO14="","",_ludiwendu_dayno_all!BO14)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -31935,7 +31935,7 @@
         <v/>
       </c>
       <c r="BP19" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO15="","",_ludiwendu_dayno_all!BO15)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -32208,7 +32208,7 @@
         <v/>
       </c>
       <c r="BP20" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO16="","",_ludiwendu_dayno_all!BO16)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -32481,7 +32481,7 @@
         <v/>
       </c>
       <c r="BP21" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO17="","",_ludiwendu_dayno_all!BO17)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -32754,7 +32754,7 @@
         <v/>
       </c>
       <c r="BP22" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO18="","",_ludiwendu_dayno_all!BO18)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33027,7 +33027,7 @@
         <v/>
       </c>
       <c r="BP23" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO19="","",_ludiwendu_dayno_all!BO19)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33300,7 +33300,7 @@
         <v/>
       </c>
       <c r="BP24" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO20="","",_ludiwendu_dayno_all!BO20)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33573,7 +33573,7 @@
         <v/>
       </c>
       <c r="BP25" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO21="","",_ludiwendu_dayno_all!BO21)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -33586,267 +33586,267 @@
         <v/>
       </c>
       <c r="C26" s="37" t="str">
-        <f t="shared" ref="C26:BN26" si="2">IF(ISERROR(AVERAGE(C16:C25)),"",AVERAGE(C16:C25))</f>
+        <f t="shared" ref="C26:BN26" si="4">IF(ISERROR(AVERAGE(C16:C25)),"",AVERAGE(C16:C25))</f>
         <v/>
       </c>
       <c r="D26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AE26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AF26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AG26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AH26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AI26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AJ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AK26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AL26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AM26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AN26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AO26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AP26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AQ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AR26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AT26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AU26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AV26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AW26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AX26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AY26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AZ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BA26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BB26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BC26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BD26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BE26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BF26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BG26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BH26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BI26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BK26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BL26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BM26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BN26" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BO26" s="37" t="str">
-        <f t="shared" ref="BO26:BP26" si="3">IF(ISERROR(AVERAGE(BO16:BO25)),"",AVERAGE(BO16:BO25))</f>
+        <f t="shared" ref="BO26:BP26" si="5">IF(ISERROR(AVERAGE(BO16:BO25)),"",AVERAGE(BO16:BO25))</f>
         <v/>
       </c>
       <c r="BP26" s="44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -34119,7 +34119,7 @@
         <v/>
       </c>
       <c r="BP27" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO22="","",_ludiwendu_dayno_all!BO22)</f>
+        <f t="shared" ref="BP27:BP37" si="6">IF(ISERROR(AVERAGE(B27:BO27)),"",AVERAGE(B27:BO27))</f>
         <v/>
       </c>
     </row>
@@ -34392,7 +34392,7 @@
         <v/>
       </c>
       <c r="BP28" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO23="","",_ludiwendu_dayno_all!BO23)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -34665,7 +34665,7 @@
         <v/>
       </c>
       <c r="BP29" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO24="","",_ludiwendu_dayno_all!BO24)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -34938,7 +34938,7 @@
         <v/>
       </c>
       <c r="BP30" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO25="","",_ludiwendu_dayno_all!BO25)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -35211,7 +35211,7 @@
         <v/>
       </c>
       <c r="BP31" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO26="","",_ludiwendu_dayno_all!BO26)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -35484,7 +35484,7 @@
         <v/>
       </c>
       <c r="BP32" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO27="","",_ludiwendu_dayno_all!BO27)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -35757,7 +35757,7 @@
         <v/>
       </c>
       <c r="BP33" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO28="","",_ludiwendu_dayno_all!BO28)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36030,7 +36030,7 @@
         <v/>
       </c>
       <c r="BP34" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO29="","",_ludiwendu_dayno_all!BO29)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36303,7 +36303,7 @@
         <v/>
       </c>
       <c r="BP35" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO30="","",_ludiwendu_dayno_all!BO30)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36576,7 +36576,7 @@
         <v/>
       </c>
       <c r="BP36" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO31="","",_ludiwendu_dayno_all!BO31)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36849,7 +36849,7 @@
         <v/>
       </c>
       <c r="BP37" s="43" t="str">
-        <f>IF(_ludiwendu_dayno_all!BO32="","",_ludiwendu_dayno_all!BO32)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36862,267 +36862,267 @@
         <v/>
       </c>
       <c r="C38" s="37" t="str">
-        <f t="shared" ref="C38:AM38" si="4">IF(ISERROR(AVERAGE(C27:C37)),"",AVERAGE(C27:C37))</f>
+        <f t="shared" ref="C38:AM38" si="7">IF(ISERROR(AVERAGE(C27:C37)),"",AVERAGE(C27:C37))</f>
         <v/>
       </c>
       <c r="D38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AJ38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AK38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AL38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AM38" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AN38" s="37" t="str">
-        <f t="shared" ref="AN38:BP38" si="5">IF(ISERROR(AVERAGE(AN27:AN37)),"",AVERAGE(AN27:AN37))</f>
+        <f t="shared" ref="AN38:BP38" si="8">IF(ISERROR(AVERAGE(AN27:AN37)),"",AVERAGE(AN27:AN37))</f>
         <v/>
       </c>
       <c r="AO38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AR38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AS38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AT38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AU38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AV38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AX38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AY38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AZ38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BA38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BB38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BC38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BD38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BE38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BF38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BG38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BH38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BI38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BJ38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BK38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BL38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BM38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BN38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BO38" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BP38" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -37147,262 +37147,264 @@
         <v/>
       </c>
       <c r="F39" s="39" t="str">
-        <f t="shared" ref="F39:BP39" si="6">IF(ISERROR(AVERAGE(F16:F25,F5:F14,F27:F37)),"",AVERAGE(F16:F25,F5:F14,F27:F37))</f>
+        <f t="shared" ref="F39:BP39" si="9">IF(ISERROR(AVERAGE(F16:F25,F5:F14,F27:F37)),"",AVERAGE(F16:F25,F5:F14,F27:F37))</f>
         <v/>
       </c>
       <c r="G39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Y39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AG39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AH39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AK39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AU39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AV39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AW39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AX39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AY39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BA39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BB39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BC39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BD39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BO39" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BP39" s="45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B27:BP37" name="区域5_2_3_2_1_3_1"/>
-    <protectedRange sqref="B5:BP14" name="区域5_2_1_3_2_2_1_1_1"/>
+    <protectedRange sqref="B27:BO37" name="区域5_2_3_2_1_3_1"/>
+    <protectedRange sqref="B5:BO14" name="区域5_2_1_3_2_2_1_1_1"/>
+    <protectedRange sqref="BP27:BP37" name="区域5_2_3_2_1_3_1_1"/>
+    <protectedRange sqref="BP5:BP14" name="区域5_2_1_3_2_2_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="70">
     <mergeCell ref="A1:BP1"/>

--- a/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
+++ b/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="539">
   <si>
     <t>七 高 炉 %当前月份% 原 燃 料 质 量</t>
   </si>
@@ -267,7 +267,7 @@
     <t>JT_name</t>
   </si>
   <si>
-    <t>JT_C</t>
+    <t>JT_Fcad</t>
   </si>
   <si>
     <t>JT_Ad</t>
@@ -276,7 +276,7 @@
     <t>JT_Vdaf</t>
   </si>
   <si>
-    <t>JT_S</t>
+    <t>JT_Std</t>
   </si>
   <si>
     <t>JT_M40</t>
@@ -1840,13 +1840,10 @@
     <t>BF7_L2C_BD_FIS01_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_BD_TI7201_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_TI7202_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_TI7202_1d_avg - BF7_L2C_BD_TI7201_1d_avg</t>
+    <t>BF7_L2C_BD_TIR02B_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_TIR02B_1d_avg - BF7_L2C_BD_TES01_1d_avg</t>
   </si>
   <si>
     <t>BF7_L2C_BD_ATI261_1d_max;BF7_L2C_BD_ATI262_1d_max;BF7_L2C_BD_ATI263_1d_max;BF7_L2C_BD_ATI264_1d_max;BF7_L2C_BD_ATI265_1d_max;BF7_L2C_BD_ATI266_1d_max;BF7_L2C_BD_ATI267_1d_max;BF7_L2C_BD_ATI268_1d_max;</t>
@@ -2018,7 +2015,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="仿宋_GB2312"/>
       <charset val="134"/>
     </font>
@@ -5162,7 +5159,7 @@
   <sheetPr/>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AS1"/>
     </sheetView>
   </sheetViews>
@@ -9033,7 +9030,7 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -9319,130 +9316,130 @@
         <v>497</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AO3" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AS3" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AT3" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
+++ b/excel/finished/wg7#高炉/7高炉月报汇总.xlsx
@@ -5159,7 +5159,7 @@
   <sheetPr/>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AS1"/>
     </sheetView>
   </sheetViews>
@@ -9473,7 +9473,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AH1"/>
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10579,15 +10579,15 @@
         <v/>
       </c>
       <c r="AC16" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AC6:AC15)=0),"",AVERAGE(AC6:AC15))</f>
+        <f>IF(ISERROR(Z16*100/SUM(Z16+AA16+AB16)),"",Z16*100/SUM(Z16+AA16+AB16))</f>
         <v/>
       </c>
       <c r="AD16" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AD6:AD15)=0),"",AVERAGE(AD6:AD15))</f>
+        <f>IF(ISERROR(AA16*100/SUM(Z16+AA16+AB16)),"",AA16*100/SUM(Z16+AA16+AB16))</f>
         <v/>
       </c>
       <c r="AE16" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AE6:AE15)=0),"",AVERAGE(AE6:AE15))</f>
+        <f>IF(ISERROR(AB16*100/SUM(Z16+AA16+AB16)),"",AB16*100/SUM(Z16+AA16+AB16))</f>
         <v/>
       </c>
       <c r="AF16" s="340"/>
@@ -11333,15 +11333,15 @@
         <v/>
       </c>
       <c r="AC27" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AC17:AC26)=0),"",AVERAGE(AC17:AC26))</f>
+        <f>IF(ISERROR(Z27*100/SUM(Z27+AA27+AB27)),"",Z27*100/SUM(Z27+AA27+AB27))</f>
         <v/>
       </c>
       <c r="AD27" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AD17:AD26)=0),"",AVERAGE(AD17:AD26))</f>
+        <f>IF(ISERROR(AA27*100/SUM(Z27+AA27+AB27)),"",AA27*100/SUM(Z27+AA27+AB27))</f>
         <v/>
       </c>
       <c r="AE27" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AE17:AE26)=0),"",AVERAGE(AE17:AE26))</f>
+        <f>IF(ISERROR(AB27*100/SUM(Z27+AA27+AB27)),"",AB27*100/SUM(Z27+AA27+AB27))</f>
         <v/>
       </c>
       <c r="AF27" s="340"/>
@@ -12149,15 +12149,15 @@
         <v/>
       </c>
       <c r="AC39" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AC28:AC38)=0),"",AVERAGE(AC28:AC38))</f>
+        <f>IF(ISERROR(Z39*100/SUM(Z39+AA39+AB39)),"",Z39*100/SUM(Z39+AA39+AB39))</f>
         <v/>
       </c>
       <c r="AD39" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AD28:AD38)=0),"",AVERAGE(AD28:AD38))</f>
+        <f>IF(ISERROR(AA39*100/SUM(Z39+AA39+AB39)),"",AA39*100/SUM(Z39+AA39+AB39))</f>
         <v/>
       </c>
       <c r="AE39" s="365" t="str">
-        <f>IF(ISERROR(AVERAGE(AE28:AE38)=0),"",AVERAGE(AE28:AE38))</f>
+        <f>IF(ISERROR(AB39*100/SUM(Z39+AA39+AB39)),"",AB39*100/SUM(Z39+AA39+AB39))</f>
         <v/>
       </c>
       <c r="AF39" s="340"/>
@@ -12272,15 +12272,15 @@
         <v/>
       </c>
       <c r="AC40" s="366" t="str">
-        <f>IF(ISERROR(AVERAGE(AC16,AC27,AC39)),"",AVERAGE(AC16,AC27,AC39))</f>
+        <f>IF(ISERROR(Z40*100/SUM(Z40+AA40+AB40)),"",Z40*100/SUM(Z40+AA40+AB40))</f>
         <v/>
       </c>
       <c r="AD40" s="366" t="str">
-        <f>IF(ISERROR(AVERAGE(AD16,AD27,AD39)),"",AVERAGE(AD16,AD27,AD39))</f>
+        <f>IF(ISERROR(AA40*100/SUM(Z40+AA40+AB40)),"",AA40*100/SUM(Z40+AA40+AB40))</f>
         <v/>
       </c>
       <c r="AE40" s="366" t="str">
-        <f>IF(ISERROR(AVERAGE(AE16,AE27,AE39)),"",AVERAGE(AE16,AE27,AE39))</f>
+        <f>IF(ISERROR(AB40*100/SUM(Z40+AA40+AB40)),"",AB40*100/SUM(Z40+AA40+AB40))</f>
         <v/>
       </c>
       <c r="AF40" s="344"/>
@@ -12319,8 +12319,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
+    <ignoredError sqref="Z27:AB27 Z16:AB16 AG16 AG27" formula="1"/>
     <ignoredError sqref="Z28:Z38 Z17:Z26 Z12:Z15 Z6:Z11" formulaRange="1"/>
-    <ignoredError sqref="Z27:AE27 Z16:AB16 AD16:AE16 AC16 AG16 AG27" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
